--- a/Excel/edit_menu_copy_paste_and_duplicate.xlsx
+++ b/Excel/edit_menu_copy_paste_and_duplicate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -106,88 +106,88 @@
     <t>&lt;  Back to: Edit Menu</t>
   </si>
   <si>
-    <t>मेनू संपादित करा: कॉपी, पेस्ट आणि डुप्लिकेट - ऑडसीटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>मेनू संपादित करा: कॉपी करा, पेस्ट करा आणि डुप्लिकेट करा</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>ऑडिओ आणि लेबलांची कॉपी, डुप्लिकेट आणि पेस्ट करण्याची साधने. एका वेळी फक्त एकच आयटम क्लिपबोर्डवर असू शकतो.</t>
-  </si>
-  <si>
     <t>Ctrl + C कॉपी करा</t>
   </si>
   <si>
-    <t>निवडलेला ऑडिओ डेटा प्रकल्पातून न काढता ऑडसिटी क्लिपबोर्डवर कॉपी करतो.</t>
-  </si>
-  <si>
     <t>Ctrl + X कट करा</t>
   </si>
   <si>
-    <t>कॉपी प्रमाणेच, परंतु निवडलेला ऑडिओ डेटा काढतो आणि ऑडसिटी क्लिपबोर्डवर ठेवतो. निवडीच्या उजवीकडे कोणताही ऑडिओ डेटा डावीकडे हलविला जातो.</t>
-  </si>
-  <si>
     <t>Ctrl + V पेस्ट करा</t>
   </si>
   <si>
-    <t>ऑडीसिटी क्लिपबोर्डवर कापला किंवा कॉपी केलेला ऑडिओ पेस्ट करा, एकतर कर्सर बिंदूवर निवडलेल्या ट्रॅकमध्ये यामध्ये समाविष्ट करुन किंवा विद्यमान निवड प्रदेश (चे) पुनर्स्थित करा.</t>
-  </si>
-  <si>
-    <t>ट्रॅक प्राधान्यांमध्ये "क्लिप्स संपादित करणे इतर क्लिप्स हलवू शकते" च्या सेटिंगवर अवलंबून पेस्ट आदेशाचे वर्तन बदलते. पर्याय तपासल्यास पेस्ट करणे नेहमीच शक्य आहे आणि खालील ऑडिओ खोलीत हलविला गेला आहे. हा पर्याय न तपासल्यास पेस्ट केलेल्या ऑडिओसाठी जागा असणे आवश्यक आहे.</t>
-  </si>
-  <si>
-    <t>"संपादन क्लिप्स इतर क्लिप हलवू शकतात" या चेकसह क्लिपच्या आत पेस्ट करणे:</t>
-  </si>
-  <si>
-    <t>जेव्हा आपण पेस्ट निवडा आणि कर्सर क्लिपच्या बाहेर असेल आणि क्लिपबोर्डवर असलेल्या ऑडिओसाठी पुरेशी जागा असेल तेव्हा, "क्लिप्स संपादित करणे इतर क्लिप हलवू शकते" तर क्लिपबोर्डवरील ऑडिओ इतर कोणत्याही क्लिप हलविल्याशिवाय घातल्या जाऊ शकतात. तपासले नाही. "एडिटिंग क्लिप्स इतर क्लिप हलवू शकतात" तपासल्यास, खालील ऑडिओ नेहमी हलविले जातील.</t>
-  </si>
-  <si>
-    <t>क्लिपच्या बाहेर पेस्ट करणे, "क्लिप्स एडिट करणे इतर क्लिप्स हलवू शकते" चेकसह:</t>
-  </si>
-  <si>
-    <t>क्लिपच्या बाहेर पेस्ट करणे, "क्लिप्स संपादित करणे इतर क्लिप हलवू शकते" यासह चेक केलेले नाही:</t>
-  </si>
-  <si>
-    <t>नवीन ट्रॅकमध्ये पेस्ट करीत आहे</t>
-  </si>
-  <si>
-    <t>आपण नवीन ट्रॅक तयार करू इच्छित असल्यास आणि त्यात पेस्ट करू इच्छित असल्यास, पेस्ट आपोआप ऑडिओ शून्यपासून प्रारंभ होणार्‍या ऑडिओसह योग्य असल्यास एक नवीन मोनो किंवा स्टिरिओ ट्रॅक तयार करेल:</t>
-  </si>
-  <si>
     <t>रिकाम्या प्रोजेक्ट विंडोमध्ये पेस्ट करा</t>
   </si>
   <si>
-    <t>सर्व ट्रॅकची निवड रद्द करण्यासाठी प्रोजेक्टमधील शेवटच्या ट्रॅकच्या खाली करड्या पार्श्वभूमीवर क्लिक करा, नंतर पेस्ट करा.</t>
-  </si>
-  <si>
-    <t>आपण मोनो ट्रॅकवरून स्टिरो ट्रॅकमध्ये पेस्ट करू शकता - मोनो ऑडिओ दोन्ही स्टिरिओ चॅनेलमध्ये पुन्हा तयार केला जाईल.</t>
-  </si>
-  <si>
-    <t>आपण स्टिरिओ ट्रॅकवरून मोनो ट्रॅकमध्ये पेस्ट करू शकत नाही. (आपण असे करण्याचा प्रयत्न केल्यास आपल्याला एक त्रुटी संदेश मिळेल.)</t>
-  </si>
-  <si>
-    <t>आपल्याला वेळेच्या शून्य व्यतिरिक्त पेस्ट सुरू करायचा असेल तर आपण प्रथम ट्रॅक&gt; नवीन जोडा&gt; मोनो ट्रॅक (किंवा नवीन जोडा&gt; स्टिरिओ ट्रॅक) वापरणे आवश्यक आहे, आपण ज्या ठिकाणी पेस्ट करू इच्छिता तेथे कर्सर ठेवा, नंतर पेस्ट बनवा.</t>
-  </si>
-  <si>
     <t>डुप्लिकेट सीटीआरएल + डी</t>
   </si>
   <si>
-    <t>नवीन क्लिप म्हणून फक्त सद्य निवडीचा एक नवीन ट्रॅक तयार करते. नवीन क्लिप मूळ ऑडिओप्रमाणेच टाइमलाइनवर त्याच स्थितीत आहे. ही प्रत बनविणे, नवीन ट्रॅक आणि पेस्ट करणे ही एक शॉर्टकट पद्धत आहे, त्याऐवजी डुप्लिकेट ऑडिओ ऑडॅसिटी क्लिपबोर्डवर कॉपी केलेला नाही, म्हणून इतर कोठे पेस्ट केला जाऊ शकत नाही.</t>
-  </si>
-  <si>
-    <t>डुप्लिकेटचा एक फायदा म्हणजे प्रभावांसह प्रयोग करण्याची क्षमता. आपण हे मूळ ट्रॅकसह देखील करू शकता परंतु आपण आपल्या प्रभावाचा आणि मूळ ऑडिओ स्वतंत्रपणे बदलू शकत नाही, केवळ नंतर प्रक्रिया केलेल्या ऑडिओचा आवाज कमी करू शकता. आपण ऑडिओची नक्कल केल्यास त्यावरील रीव्हर्बचा वापर करा (100% रीव्हर्ब आणि 0% मूळ सिग्नलसह), आपण प्रत्येक ट्रॅकवरील वाढ स्लाइडरचा वापर करून मूळ आणि रिव्हर्ब सिग्नल दोन्हीसाठी खंड मुक्तपणे बदलू शकता.</t>
-  </si>
-  <si>
-    <t>विशेष प्रभाव तयार करण्यासाठी आपण आपल्या डुप्लिकेटवर स्वारस्यपूर्ण गोष्टी करू शकता. कार्य करण्यासाठी ट्रॅकच्या दोन आवृत्त्यांसह आपण एखादा विभाग शांत करू शकता, दुसरा विभाग पुन्हा चालू करू शकता, तिसरा टप्पा करु शकता, दुसरे फिल्टर करू शकता (एका ट्रॅकमध्ये किंवा इतरात) आणि ते कसे दिसते हे पाहू शकता.</t>
-  </si>
-  <si>
     <t>&lt;परत: संपादन मेनू</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>ध्वनी आणि लेबलांची कॉपी, डुप्लिकेट आणि पेस्ट करण्याची साधने. एका वेळी फक्त एकच घटक क्लिपबोर्डवर असू शकतो.</t>
+  </si>
+  <si>
+    <t>संपादन मेन्यू : कॉपी, पेस्ट आणि डुप्लिकेट</t>
+  </si>
+  <si>
+    <t>संपादन मेन्यू : कॉपी, पेस्ट आणि डुप्लिकेट - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>निवडलेला ध्वनी डेटा प्रकल्पातून न काढता ओड्यासिटी क्लिपबोर्डवर कॉपी करतो.</t>
+  </si>
+  <si>
+    <t>कॉपी प्रमाणेच, परंतु निवडलेला ध्वनी डेटा काढतो आणि ओड्यासिटी क्लिपबोर्डवर ठेवतो. निवडीच्या उजवीकडे कोणताही ध्वनी डेटा डावीकडे हलविला जातो.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी क्लिपबोर्डवर कट  किंवा कॉपी केलेला ध्वनी पेस्ट करा, एकतर कर्सर बिंदूवर निवडलेल्या गीतपट्टामध्ये यामध्ये समाविष्ट करुन किंवा विद्यमान निवड प्रदेश (चे) पुनर्स्थित करा.</t>
+  </si>
+  <si>
+    <t>गीतपट्ट प्राधान्यांमध्ये "फित संपादित करणे इतर फित हलवू शकते" च्या सेटिंगवर अवलंबून पेस्ट आदेशाचे वर्तन बदलते. पर्याय तपासल्यास पेस्ट करणे नेहमीच शक्य आहे आणि खालील ध्वनी खोलीत हलविला गेला आहे. हा पर्याय न तपासल्यास पेस्ट केलेल्या ध्वनीसाठी जागा असणे आवश्यक आहे.</t>
+  </si>
+  <si>
+    <t>संपादन फिती इतर फित हलवू शकतात या चेकसह फितीच्या आत पेस्ट करणे:</t>
+  </si>
+  <si>
+    <t>जेव्हा आपण पेस्ट निवडाल आणि कर्सर क्लिपच्या बाहेर असेल आणि क्लिपबोर्डवर असलेल्या ध्वनीसाठी पुरेशी जागा असेल तेव्हा, "फिती संपादित करणे इतर फित हलवू शकते" तर क्लिपबोर्डवरील ध्वनी  इतर कोणत्याही फित हलविल्याशिवाय घातल्या जाऊ शकतात. तपासले नाही. "फिती संपादित करणे इतर फित हलवू शकते" तपासल्यास, खालील ध्वनी नेहमी हलविले जातील.</t>
+  </si>
+  <si>
+    <t>फितीच्या बाहेर पेस्ट करणे, "फिती संपादित करणे इतर फित हलवू शकते" चेकसह:</t>
+  </si>
+  <si>
+    <t>क्लिपच्या बाहेर पेस्ट करणे, "फिती संपादित करणे इतर फित हलवू शकते" यासह तपासलेल्या नाही:</t>
+  </si>
+  <si>
+    <t>नवीन गतिपट्टामध्ये पेस्ट करीत आहे</t>
+  </si>
+  <si>
+    <t>आपण नवीन गतिपट्टा तयार करू इच्छित असल्यास आणि त्यात पेस्ट करू इच्छित असल्यास, पेस्ट आपोआप ध्वनी शून्यपासून प्रारंभ होणार्‍या ध्वनीसह योग्य असल्यास एक नवीन मोनो किंवा स्टिरिओ गतिपट्टा तयार करेल:</t>
+  </si>
+  <si>
+    <t>सर्व गीतपट्ट्यांची निवड रद्द करण्यासाठी प्रोजेक्टमधील शेवटच्या गीतपट्ट्याच्या खाली करड्या पार्श्वभूमीवर क्लिक करा, नंतर पेस्ट करा.</t>
+  </si>
+  <si>
+    <t>आपण मोनो गीतपट्टावरून स्टिरो गीतपट्टामध्ये पेस्ट करू शकता - मोनो ध्वनी दोन्ही स्टिरिओ वाहिनीमध्ये पुन्हा तयार केला जाईल.</t>
+  </si>
+  <si>
+    <t>आपण स्टिरिओ गीतपट्टावरून मोनो गीतपट्टामध्ये पेस्ट करू शकत नाही. (आपण असे करण्याचा प्रयत्न केल्यास आपल्याला एक त्रुटी संदेश मिळेल.)</t>
+  </si>
+  <si>
+    <t>आपल्याला वेळेच्या शून्य व्यतिरिक्त पेस्ट सुरू करायचा असेल तर आपण प्रथम गीतपट्टा &gt; नवीन जोडा&gt; मोनो गीतपट्टा (किंवा नवीन जोडा&gt; स्टिरिओ गीतपट्टा) वापरणे आवश्यक आहे, आपण ज्या ठिकाणी पेस्ट करू इच्छिता तेथे कर्सर ठेवा, नंतर पेस्ट बनवा.</t>
+  </si>
+  <si>
+    <t>नवीन फित म्हणून फक्त सद्य निवडीचा एक नवीन गीतपट्टा तयार करते. नवीन फित मूळ ध्वनीप्रमाणेच टाइमलाइनवर त्याच स्थितीत आहे. ही प्रत बनविणे, नवीन गीतपट्टा आणि पेस्ट करणे ही एक शॉर्टकट पद्धत आहे, त्याऐवजी डुप्लिकेट ध्वनी ओड्यासिटी क्लिपबोर्डवर कॉपी केलेला नाही, म्हणून इतर कोठे पेस्ट केला जाऊ शकत नाही.</t>
+  </si>
+  <si>
+    <t>डुप्लिकेटचा एक फायदा म्हणजे प्रभावांसह प्रयोग करण्याची क्षमता. आपण हे मूळ गीतपट्टासह देखील करू शकता परंतु आपण आपल्या प्रभावाचा आणि मूळ ध्वनी स्वतंत्रपणे बदलू शकत नाही, केवळ नंतर प्रक्रिया केलेल्या ध्वनीचा आवाज कमी करू शकता. आपण ध्वनीची नक्कल केल्यास त्यावरील रीव्हर्बचा वापर करा (१००% रीव्हर्ब आणि ०% मूळ सिग्नलसह), आपण प्रत्येक गीतपट्टावरील वाढ स्लाइडरचा वापर करून मूळ आणि रिव्हर्ब सिग्नल दोन्हीसाठी खंड मुक्तपणे बदलू शकता.</t>
+  </si>
+  <si>
+    <t>विशेष प्रभाव तयार करण्यासाठी आपण आपल्या डुप्लिकेटवर स्वारस्यपूर्ण गोष्टी करू शकता. कार्य करण्यासाठी गीतपट्टाच्या दोन आवृत्त्यांसह आपण एखादा विभाग शांत करू शकता, दुसरा विभाग पुन्हा चालू करू शकता, तिसरा टप्पा करु शकता, दुसरे फिल्टर करू शकता (एका गीतपट्टामध्ये किंवा इतरात) आणि ते कसे दिसते हे पाहू शकता.</t>
   </si>
 </sst>
 </file>
@@ -246,11 +246,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,9 +548,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="79.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -567,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -578,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -589,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -600,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -611,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -622,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -633,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -644,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -655,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -666,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -677,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -687,8 +694,8 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>41</v>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -699,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -709,8 +716,8 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>43</v>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -721,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -732,7 +739,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -743,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -754,7 +761,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -765,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -776,7 +783,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -787,7 +794,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -798,7 +805,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -809,7 +816,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -820,7 +827,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -830,8 +837,8 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>54</v>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -841,8 +848,8 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>55</v>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -852,8 +859,8 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>56</v>
+      <c r="C28" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -864,7 +871,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
